--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3834.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3834.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.368899863213879</v>
+        <v>4.169816493988037</v>
       </c>
       <c r="B1">
-        <v>2.281382812210039</v>
+        <v>4.367257118225098</v>
       </c>
       <c r="C1">
-        <v>4.948871603489128</v>
+        <v>8.122538566589355</v>
       </c>
       <c r="D1">
-        <v>3.275773565181824</v>
+        <v>8.375124931335449</v>
       </c>
       <c r="E1">
-        <v>0.9847604344430998</v>
+        <v>5.524156093597412</v>
       </c>
     </row>
   </sheetData>
